--- a/model/data/DSM/xlsx/DSM.xlsx
+++ b/model/data/DSM/xlsx/DSM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jswart004\Documents\Work\propositions\sdm\tRBS_python\opensource20230804b\trbs\model\data\DSM\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lheringa001\Desktop\RBS_opensource\trbs_dsm\model\data\DSM\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49262133-EB7A-4E69-88D6-994824E21F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E91D93-C97C-46C5-A426-D7D1DDD1917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="1140" windowWidth="26235" windowHeight="15885" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="scenario_weights" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">dependencies!$A$1:$H$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">dependencies!$A$1:$H$70</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="126">
   <si>
     <t>configuration</t>
   </si>
@@ -123,9 +123,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>-*</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -258,12 +255,6 @@
     <t>Demand % RE make</t>
   </si>
   <si>
-    <t>Volume RE make</t>
-  </si>
-  <si>
-    <t>Investment cost rate RE make after discount</t>
-  </si>
-  <si>
     <t>Share used of capacity RE make</t>
   </si>
   <si>
@@ -345,9 +336,6 @@
     <t>Carbon footprint reduction condition</t>
   </si>
   <si>
-    <t>Increase in employee engagement int</t>
-  </si>
-  <si>
     <t>Current employee recommendation rate</t>
   </si>
   <si>
@@ -417,7 +405,10 @@
     <t>New employee disengagement score</t>
   </si>
   <si>
-    <t>Increase in employee engagement</t>
+    <t>Investment cost rate RE make discount</t>
+  </si>
+  <si>
+    <t>Total demand RS and RE</t>
   </si>
 </sst>
 </file>
@@ -428,7 +419,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,16 +472,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -528,12 +531,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -573,6 +587,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -961,7 +989,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>14</v>
@@ -988,7 +1016,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>14</v>
@@ -1015,7 +1043,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>13</v>
@@ -1042,7 +1070,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>13</v>
@@ -1069,7 +1097,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -1096,7 +1124,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>12</v>
@@ -1123,7 +1151,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>12</v>
@@ -1150,7 +1178,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>12</v>
@@ -1177,7 +1205,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>12</v>
@@ -1212,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1233,10 +1261,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -1244,10 +1272,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -1255,10 +1283,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -1266,10 +1294,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -1277,10 +1305,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -1288,10 +1316,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -1299,10 +1327,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -1310,10 +1338,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -1321,10 +1349,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -1332,10 +1360,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -1343,10 +1371,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5">
         <v>0.5</v>
@@ -1354,10 +1382,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -1365,10 +1393,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -1376,10 +1404,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -1387,10 +1415,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -1398,10 +1426,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" s="5">
         <v>0.5</v>
@@ -1409,10 +1437,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -1420,10 +1448,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -1431,10 +1459,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -1442,10 +1470,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
@@ -1453,10 +1481,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -1464,10 +1492,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -1475,10 +1503,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -1486,10 +1514,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5">
         <v>0.5</v>
@@ -1497,10 +1525,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5">
         <v>0.5</v>
@@ -1508,10 +1536,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -1519,10 +1547,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -1530,10 +1558,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -1541,10 +1569,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -1552,10 +1580,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="5">
         <v>0.5</v>
@@ -1563,10 +1591,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -1574,10 +1602,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5">
         <v>0.5</v>
@@ -1585,10 +1613,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5">
         <v>0</v>
@@ -1596,10 +1624,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="5">
         <v>0</v>
@@ -1607,10 +1635,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
@@ -1618,10 +1646,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="5">
         <v>0.5</v>
@@ -1630,10 +1658,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C38" s="5">
         <v>0</v>
@@ -1642,10 +1670,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="5">
         <v>0</v>
@@ -1654,10 +1682,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="5">
         <v>0</v>
@@ -1666,10 +1694,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="5">
         <v>0</v>
@@ -1678,10 +1706,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
@@ -1690,10 +1718,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
@@ -1712,7 +1740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1734,10 +1764,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="6">
         <v>108</v>
@@ -1745,10 +1775,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6">
         <v>270</v>
@@ -1756,10 +1786,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" s="6">
         <v>130</v>
@@ -1767,10 +1797,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5" s="6">
         <v>115</v>
@@ -1778,10 +1808,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" s="6">
         <v>51</v>
@@ -1789,10 +1819,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C7" s="6">
         <v>0.3</v>
@@ -1800,10 +1830,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C8" s="6">
         <v>0.3</v>
@@ -1811,10 +1841,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6">
         <v>108</v>
@@ -1822,10 +1852,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6">
         <v>220</v>
@@ -1833,10 +1863,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6">
         <v>120</v>
@@ -1844,10 +1874,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="6">
         <v>90</v>
@@ -1855,10 +1885,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6">
         <v>40</v>
@@ -1866,10 +1896,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6">
         <v>0.6</v>
@@ -1877,10 +1907,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="C15" s="6">
         <v>0.35</v>
@@ -1888,10 +1918,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="6">
         <v>108</v>
@@ -1899,10 +1929,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6">
         <v>320</v>
@@ -1910,10 +1940,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6">
         <v>140</v>
@@ -1921,10 +1951,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6">
         <v>130</v>
@@ -1932,10 +1962,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6">
         <v>60</v>
@@ -1943,10 +1973,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -1954,10 +1984,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="6">
         <v>0.25</v>
@@ -1973,7 +2003,7 @@
   <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2021,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8">
         <v>15000</v>
@@ -1999,7 +2029,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="8">
         <v>15000</v>
@@ -2007,7 +2037,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="8">
         <v>0.1</v>
@@ -2015,7 +2045,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8">
         <v>0.67600000000000005</v>
@@ -2023,7 +2053,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="8">
         <v>0.7</v>
@@ -2031,7 +2061,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="8">
         <v>0.36</v>
@@ -2039,7 +2069,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="8">
         <v>0.13</v>
@@ -2047,7 +2077,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8">
         <v>212</v>
@@ -2055,7 +2085,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="8">
         <v>0.1</v>
@@ -2063,7 +2093,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="8">
         <v>1.7299999999999999E-2</v>
@@ -2071,7 +2101,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="8">
         <v>1.7299999999999999E-2</v>
@@ -2079,7 +2109,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="8">
         <v>30000</v>
@@ -2087,7 +2117,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="8">
         <v>0.78</v>
@@ -2095,7 +2125,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="8">
         <v>40000000</v>
@@ -2276,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,41 +2352,41 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>29</v>
@@ -2364,27 +2394,27 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>28</v>
@@ -2392,41 +2422,41 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>55</v>
+      <c r="C7" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>30</v>
+        <v>124</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>29</v>
@@ -2434,13 +2464,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>28</v>
@@ -2448,13 +2478,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>103</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>28</v>
@@ -2462,13 +2492,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>29</v>
@@ -2476,69 +2506,69 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>28</v>
@@ -2546,55 +2576,55 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>28</v>
@@ -2602,13 +2632,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>28</v>
@@ -2616,27 +2646,27 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>28</v>
@@ -2644,13 +2674,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>28</v>
@@ -2658,41 +2688,41 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>28</v>
@@ -2700,13 +2730,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>28</v>
@@ -2714,111 +2744,111 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>28</v>
@@ -2826,13 +2856,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>28</v>
@@ -2840,10 +2870,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>51</v>
@@ -2854,13 +2884,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>28</v>
@@ -2868,13 +2898,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>28</v>
@@ -2882,69 +2912,69 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="D42" s="11" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="11">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>28</v>
@@ -2952,356 +2982,369 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="D49" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>111</v>
+      <c r="B51">
+        <v>0</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="11">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="16">
+        <v>1</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="16">
+        <v>1</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="11">
-        <v>1</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="11" t="s">
+      <c r="B61" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="11" t="s">
+      <c r="D61" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="B66" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="11">
-        <v>0</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="B67" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="11">
-        <v>1</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="11">
-        <v>1</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="11" t="s">
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="16">
+        <v>0</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>125</v>
-      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3320,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3371,12 +3414,12 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3384,7 +3427,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -3392,7 +3435,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
@@ -3400,7 +3443,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
@@ -3408,7 +3451,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="15">
         <v>1</v>
@@ -3416,7 +3459,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="15">
         <v>1</v>
@@ -3424,7 +3467,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15">
         <v>1</v>
@@ -3432,7 +3475,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="15">
         <v>1</v>
@@ -3440,7 +3483,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="15">
         <v>1</v>
@@ -3469,12 +3512,12 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -3482,7 +3525,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -3490,7 +3533,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
